--- a/修改记录.xlsx
+++ b/修改记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,42 +118,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2017.02.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.添加设备型号映射功能,编辑DEV.ini即可,原始型号与OEM型号用英文字符","分开,一行一个型号映射.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.去掉DEV.ini中读取设备型号的前后导字符；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.03.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Public增加CMyDataMem用于数据编辑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Public增加CMyRTWave用于查看实时波形；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.03.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修改NPST，WaveForm中注册表路径
+ 修改字符串AFX_IDS_APP_TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2.Pub增加一些公用函数，Deg2Rad, Rad2Deg, round…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.02.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.添加设备型号映射功能,编辑DEV.ini即可,原始型号与OEM型号用英文字符","分开,一行一个型号映射.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.去掉DEV.ini中读取设备型号的前后导字符；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.03.28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Public增加CMyDataMem用于数据编辑。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Public增加CMyRTWave用于查看实时波形；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.03.31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -499,7 +508,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -574,6 +583,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -609,6 +635,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -789,13 +832,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:E12"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5" customWidth="1"/>
+    <col min="2" max="2" width="51.75" customWidth="1"/>
     <col min="3" max="3" width="30.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.125" customWidth="1"/>
     <col min="5" max="5" width="8.375" customWidth="1"/>
@@ -891,7 +934,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -899,10 +942,10 @@
     </row>
     <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -911,7 +954,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -919,10 +962,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -930,18 +973,22 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9"/>
+    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>
@@ -972,6 +1019,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -985,6 +1035,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
